--- a/docs/Compras.xlsx
+++ b/docs/Compras.xlsx
@@ -3,9 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Compras" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Compras1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Compras1!$A$1:$F$999</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>
@@ -616,10 +618,10 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1">
-        <v>132.0</v>
+        <v>13.0</v>
       </c>
       <c r="C2" s="1">
-        <v>147.0</v>
+        <v>47.0</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -636,7 +638,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1">
-        <v>117.0</v>
+        <v>11.0</v>
       </c>
       <c r="C3" s="1">
         <v>67.0</v>
@@ -656,10 +658,10 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1">
-        <v>216.0</v>
+        <v>21.0</v>
       </c>
       <c r="C4" s="1">
-        <v>194.0</v>
+        <v>94.0</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -696,10 +698,10 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1">
-        <v>299.0</v>
+        <v>29.0</v>
       </c>
       <c r="C6" s="1">
-        <v>120.0</v>
+        <v>20.0</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
@@ -719,7 +721,7 @@
         <v>61.0</v>
       </c>
       <c r="C7" s="1">
-        <v>182.0</v>
+        <v>82.0</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -776,7 +778,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="1">
-        <v>194.0</v>
+        <v>19.0</v>
       </c>
       <c r="C10" s="1">
         <v>40.0</v>
@@ -796,7 +798,7 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="1">
-        <v>107.0</v>
+        <v>10.0</v>
       </c>
       <c r="C11" s="1">
         <v>34.0</v>
@@ -816,7 +818,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="1">
-        <v>160.0</v>
+        <v>16.0</v>
       </c>
       <c r="C12" s="1">
         <v>8.0</v>
@@ -836,10 +838,10 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="1">
-        <v>187.0</v>
+        <v>18.0</v>
       </c>
       <c r="C13" s="1">
-        <v>157.0</v>
+        <v>57.0</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>17</v>
@@ -856,7 +858,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="1">
-        <v>141.0</v>
+        <v>14.0</v>
       </c>
       <c r="C14" s="1">
         <v>15.0</v>
@@ -879,7 +881,7 @@
         <v>77.0</v>
       </c>
       <c r="C15" s="1">
-        <v>133.0</v>
+        <v>33.0</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>19</v>
@@ -896,7 +898,7 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="1">
-        <v>208.0</v>
+        <v>20.0</v>
       </c>
       <c r="C16" s="1">
         <v>96.0</v>
@@ -919,7 +921,7 @@
         <v>54.0</v>
       </c>
       <c r="C17" s="1">
-        <v>117.0</v>
+        <v>17.0</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>21</v>
@@ -939,7 +941,7 @@
         <v>84.0</v>
       </c>
       <c r="C18" s="1">
-        <v>187.0</v>
+        <v>87.0</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>22</v>
@@ -976,10 +978,10 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="1">
-        <v>273.0</v>
+        <v>27.0</v>
       </c>
       <c r="C20" s="1">
-        <v>144.0</v>
+        <v>44.0</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>24</v>
@@ -996,10 +998,10 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="1">
-        <v>131.0</v>
+        <v>31.0</v>
       </c>
       <c r="C21" s="1">
-        <v>169.0</v>
+        <v>69.0</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>25</v>
@@ -1016,7 +1018,7 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="1">
-        <v>145.0</v>
+        <v>45.0</v>
       </c>
       <c r="C22" s="1">
         <v>4.0</v>
@@ -1056,7 +1058,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="1">
-        <v>296.0</v>
+        <v>96.0</v>
       </c>
       <c r="C24" s="1">
         <v>86.0</v>
@@ -1076,7 +1078,7 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="1">
-        <v>195.0</v>
+        <v>95.0</v>
       </c>
       <c r="C25" s="1">
         <v>3.0</v>
@@ -1099,7 +1101,7 @@
         <v>41.0</v>
       </c>
       <c r="C26" s="1">
-        <v>103.0</v>
+        <v>3.0</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>30</v>
@@ -1116,10 +1118,10 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="1">
-        <v>260.0</v>
+        <v>60.0</v>
       </c>
       <c r="C27" s="1">
-        <v>152.0</v>
+        <v>52.0</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>31</v>
@@ -1136,10 +1138,10 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="1">
-        <v>289.0</v>
+        <v>89.0</v>
       </c>
       <c r="C28" s="1">
-        <v>178.0</v>
+        <v>78.0</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>32</v>
@@ -1196,10 +1198,10 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="1">
-        <v>236.0</v>
+        <v>36.0</v>
       </c>
       <c r="C31" s="1">
-        <v>109.0</v>
+        <v>9.0</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>35</v>
@@ -1216,10 +1218,10 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="1">
-        <v>187.0</v>
+        <v>87.0</v>
       </c>
       <c r="C32" s="1">
-        <v>131.0</v>
+        <v>31.0</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>36</v>
@@ -1236,7 +1238,7 @@
         <v>32.0</v>
       </c>
       <c r="B33" s="1">
-        <v>174.0</v>
+        <v>74.0</v>
       </c>
       <c r="C33" s="1">
         <v>81.0</v>
@@ -1276,10 +1278,10 @@
         <v>34.0</v>
       </c>
       <c r="B35" s="1">
-        <v>108.0</v>
+        <v>8.0</v>
       </c>
       <c r="C35" s="1">
-        <v>183.0</v>
+        <v>83.0</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>39</v>
@@ -1296,10 +1298,10 @@
         <v>35.0</v>
       </c>
       <c r="B36" s="1">
-        <v>134.0</v>
+        <v>34.0</v>
       </c>
       <c r="C36" s="1">
-        <v>199.0</v>
+        <v>99.0</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>40</v>
@@ -1316,10 +1318,10 @@
         <v>36.0</v>
       </c>
       <c r="B37" s="1">
-        <v>214.0</v>
+        <v>14.0</v>
       </c>
       <c r="C37" s="1">
-        <v>160.0</v>
+        <v>60.0</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>41</v>
@@ -1336,7 +1338,7 @@
         <v>37.0</v>
       </c>
       <c r="B38" s="1">
-        <v>220.0</v>
+        <v>20.0</v>
       </c>
       <c r="C38" s="1">
         <v>100.0</v>
@@ -1356,7 +1358,7 @@
         <v>38.0</v>
       </c>
       <c r="B39" s="1">
-        <v>182.0</v>
+        <v>82.0</v>
       </c>
       <c r="C39" s="1">
         <v>69.0</v>
@@ -1376,10 +1378,10 @@
         <v>39.0</v>
       </c>
       <c r="B40" s="1">
-        <v>162.0</v>
+        <v>62.0</v>
       </c>
       <c r="C40" s="1">
-        <v>138.0</v>
+        <v>38.0</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>44</v>
@@ -1416,7 +1418,7 @@
         <v>41.0</v>
       </c>
       <c r="B42" s="1">
-        <v>292.0</v>
+        <v>92.0</v>
       </c>
       <c r="C42" s="1">
         <v>92.0</v>
@@ -1436,10 +1438,10 @@
         <v>42.0</v>
       </c>
       <c r="B43" s="1">
-        <v>125.0</v>
+        <v>25.0</v>
       </c>
       <c r="C43" s="1">
-        <v>175.0</v>
+        <v>75.0</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>47</v>
@@ -1459,7 +1461,7 @@
         <v>8.0</v>
       </c>
       <c r="C44" s="1">
-        <v>189.0</v>
+        <v>89.0</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>48</v>
@@ -1496,10 +1498,10 @@
         <v>45.0</v>
       </c>
       <c r="B46" s="1">
-        <v>253.0</v>
+        <v>53.0</v>
       </c>
       <c r="C46" s="1">
-        <v>155.0</v>
+        <v>55.0</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>50</v>
@@ -1519,7 +1521,7 @@
         <v>27.0</v>
       </c>
       <c r="C47" s="1">
-        <v>187.0</v>
+        <v>87.0</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>51</v>
@@ -1536,7 +1538,7 @@
         <v>47.0</v>
       </c>
       <c r="B48" s="1">
-        <v>231.0</v>
+        <v>31.0</v>
       </c>
       <c r="C48" s="1">
         <v>54.0</v>
@@ -1576,7 +1578,7 @@
         <v>49.0</v>
       </c>
       <c r="B50" s="1">
-        <v>205.0</v>
+        <v>5.0</v>
       </c>
       <c r="C50" s="1">
         <v>64.0</v>
@@ -1596,10 +1598,10 @@
         <v>50.0</v>
       </c>
       <c r="B51" s="1">
-        <v>171.0</v>
+        <v>71.0</v>
       </c>
       <c r="C51" s="1">
-        <v>116.0</v>
+        <v>16.0</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>55</v>
@@ -1616,7 +1618,7 @@
         <v>51.0</v>
       </c>
       <c r="B52" s="1">
-        <v>101.0</v>
+        <v>1.0</v>
       </c>
       <c r="C52" s="1">
         <v>24.0</v>
@@ -1659,7 +1661,7 @@
         <v>89.0</v>
       </c>
       <c r="C54" s="1">
-        <v>163.0</v>
+        <v>63.0</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>58</v>
@@ -1696,10 +1698,10 @@
         <v>55.0</v>
       </c>
       <c r="B56" s="1">
-        <v>283.0</v>
+        <v>83.0</v>
       </c>
       <c r="C56" s="1">
-        <v>126.0</v>
+        <v>26.0</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>60</v>
@@ -1716,7 +1718,7 @@
         <v>56.0</v>
       </c>
       <c r="B57" s="1">
-        <v>146.0</v>
+        <v>46.0</v>
       </c>
       <c r="C57" s="1">
         <v>45.0</v>
@@ -1736,7 +1738,7 @@
         <v>57.0</v>
       </c>
       <c r="B58" s="1">
-        <v>244.0</v>
+        <v>44.0</v>
       </c>
       <c r="C58" s="1">
         <v>82.0</v>
@@ -1759,7 +1761,7 @@
         <v>72.0</v>
       </c>
       <c r="C59" s="1">
-        <v>151.0</v>
+        <v>51.0</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>63</v>
@@ -1776,10 +1778,10 @@
         <v>59.0</v>
       </c>
       <c r="B60" s="1">
-        <v>232.0</v>
+        <v>32.0</v>
       </c>
       <c r="C60" s="1">
-        <v>168.0</v>
+        <v>68.0</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>64</v>
@@ -1796,7 +1798,7 @@
         <v>60.0</v>
       </c>
       <c r="B61" s="1">
-        <v>276.0</v>
+        <v>76.0</v>
       </c>
       <c r="C61" s="1">
         <v>59.0</v>
@@ -1816,10 +1818,10 @@
         <v>61.0</v>
       </c>
       <c r="B62" s="1">
-        <v>203.0</v>
+        <v>3.0</v>
       </c>
       <c r="C62" s="1">
-        <v>147.0</v>
+        <v>47.0</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>66</v>
@@ -1856,7 +1858,7 @@
         <v>63.0</v>
       </c>
       <c r="B64" s="1">
-        <v>297.0</v>
+        <v>97.0</v>
       </c>
       <c r="C64" s="1">
         <v>35.0</v>
@@ -1899,7 +1901,7 @@
         <v>26.0</v>
       </c>
       <c r="C66" s="1">
-        <v>187.0</v>
+        <v>87.0</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>70</v>
@@ -1916,7 +1918,7 @@
         <v>66.0</v>
       </c>
       <c r="B67" s="1">
-        <v>196.0</v>
+        <v>96.0</v>
       </c>
       <c r="C67" s="1">
         <v>89.0</v>
@@ -1936,7 +1938,7 @@
         <v>67.0</v>
       </c>
       <c r="B68" s="1">
-        <v>157.0</v>
+        <v>57.0</v>
       </c>
       <c r="C68" s="1">
         <v>95.0</v>
@@ -1959,7 +1961,7 @@
         <v>59.0</v>
       </c>
       <c r="C69" s="1">
-        <v>178.0</v>
+        <v>78.0</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>73</v>
@@ -1979,7 +1981,7 @@
         <v>40.0</v>
       </c>
       <c r="C70" s="1">
-        <v>136.0</v>
+        <v>36.0</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>74</v>
@@ -2016,7 +2018,7 @@
         <v>71.0</v>
       </c>
       <c r="B72" s="1">
-        <v>290.0</v>
+        <v>90.0</v>
       </c>
       <c r="C72" s="1">
         <v>91.0</v>
@@ -2036,10 +2038,10 @@
         <v>72.0</v>
       </c>
       <c r="B73" s="1">
-        <v>241.0</v>
+        <v>41.0</v>
       </c>
       <c r="C73" s="1">
-        <v>172.0</v>
+        <v>72.0</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>77</v>
@@ -2076,10 +2078,10 @@
         <v>74.0</v>
       </c>
       <c r="B75" s="1">
-        <v>214.0</v>
+        <v>14.0</v>
       </c>
       <c r="C75" s="1">
-        <v>160.0</v>
+        <v>60.0</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>79</v>
@@ -2096,7 +2098,7 @@
         <v>75.0</v>
       </c>
       <c r="B76" s="1">
-        <v>299.0</v>
+        <v>99.0</v>
       </c>
       <c r="C76" s="1">
         <v>97.0</v>
@@ -2119,7 +2121,7 @@
         <v>66.0</v>
       </c>
       <c r="C77" s="1">
-        <v>102.0</v>
+        <v>100.0</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>81</v>
@@ -2139,7 +2141,7 @@
         <v>53.0</v>
       </c>
       <c r="C78" s="1">
-        <v>116.0</v>
+        <v>16.0</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>82</v>
@@ -2156,7 +2158,7 @@
         <v>78.0</v>
       </c>
       <c r="B79" s="1">
-        <v>265.0</v>
+        <v>65.0</v>
       </c>
       <c r="C79" s="1">
         <v>60.0</v>
@@ -2176,7 +2178,7 @@
         <v>79.0</v>
       </c>
       <c r="B80" s="1">
-        <v>120.0</v>
+        <v>20.0</v>
       </c>
       <c r="C80" s="1">
         <v>49.0</v>
@@ -2199,7 +2201,7 @@
         <v>5.0</v>
       </c>
       <c r="C81" s="1">
-        <v>121.0</v>
+        <v>21.0</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>85</v>
@@ -2219,7 +2221,7 @@
         <v>90.0</v>
       </c>
       <c r="C82" s="1">
-        <v>133.0</v>
+        <v>33.0</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>86</v>
@@ -2236,10 +2238,10 @@
         <v>82.0</v>
       </c>
       <c r="B83" s="1">
-        <v>154.0</v>
+        <v>54.0</v>
       </c>
       <c r="C83" s="1">
-        <v>156.0</v>
+        <v>56.0</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>87</v>
@@ -2259,7 +2261,7 @@
         <v>36.0</v>
       </c>
       <c r="C84" s="1">
-        <v>170.0</v>
+        <v>70.0</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>88</v>
@@ -2276,7 +2278,7 @@
         <v>84.0</v>
       </c>
       <c r="B85" s="1">
-        <v>179.0</v>
+        <v>79.0</v>
       </c>
       <c r="C85" s="1">
         <v>26.0</v>
@@ -2296,10 +2298,10 @@
         <v>85.0</v>
       </c>
       <c r="B86" s="1">
-        <v>213.0</v>
+        <v>13.0</v>
       </c>
       <c r="C86" s="1">
-        <v>138.0</v>
+        <v>38.0</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>90</v>
@@ -2316,7 +2318,7 @@
         <v>86.0</v>
       </c>
       <c r="B87" s="1">
-        <v>135.0</v>
+        <v>35.0</v>
       </c>
       <c r="C87" s="1">
         <v>76.0</v>
@@ -2336,7 +2338,7 @@
         <v>87.0</v>
       </c>
       <c r="B88" s="1">
-        <v>222.0</v>
+        <v>22.0</v>
       </c>
       <c r="C88" s="1">
         <v>39.0</v>
@@ -2376,10 +2378,10 @@
         <v>89.0</v>
       </c>
       <c r="B90" s="1">
-        <v>114.0</v>
+        <v>14.0</v>
       </c>
       <c r="C90" s="1">
-        <v>112.0</v>
+        <v>12.0</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>94</v>
@@ -2396,7 +2398,7 @@
         <v>90.0</v>
       </c>
       <c r="B91" s="1">
-        <v>175.0</v>
+        <v>75.0</v>
       </c>
       <c r="C91" s="1">
         <v>32.0</v>
@@ -2416,10 +2418,10 @@
         <v>91.0</v>
       </c>
       <c r="B92" s="1">
-        <v>246.0</v>
+        <v>46.0</v>
       </c>
       <c r="C92" s="1">
-        <v>185.0</v>
+        <v>85.0</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>96</v>
@@ -2456,10 +2458,10 @@
         <v>93.0</v>
       </c>
       <c r="B94" s="1">
-        <v>102.0</v>
+        <v>2.0</v>
       </c>
       <c r="C94" s="1">
-        <v>129.0</v>
+        <v>29.0</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>98</v>
@@ -2476,10 +2478,10 @@
         <v>94.0</v>
       </c>
       <c r="B95" s="1">
-        <v>122.0</v>
+        <v>22.0</v>
       </c>
       <c r="C95" s="1">
-        <v>104.0</v>
+        <v>4.0</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>99</v>
@@ -2496,10 +2498,10 @@
         <v>95.0</v>
       </c>
       <c r="B96" s="1">
-        <v>200.0</v>
+        <v>100.0</v>
       </c>
       <c r="C96" s="1">
-        <v>140.0</v>
+        <v>40.0</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>100</v>
@@ -2516,7 +2518,7 @@
         <v>96.0</v>
       </c>
       <c r="B97" s="1">
-        <v>143.0</v>
+        <v>43.0</v>
       </c>
       <c r="C97" s="1">
         <v>44.0</v>
@@ -2556,10 +2558,10 @@
         <v>98.0</v>
       </c>
       <c r="B99" s="1">
-        <v>109.0</v>
+        <v>9.0</v>
       </c>
       <c r="C99" s="1">
-        <v>155.0</v>
+        <v>55.0</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>103</v>
@@ -2599,7 +2601,7 @@
         <v>14.0</v>
       </c>
       <c r="C101" s="1">
-        <v>119.0</v>
+        <v>19.0</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>105</v>
@@ -2612,6 +2614,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$F$999"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>